--- a/res_img/resnet50-block-10k-origincode/动态.xlsx
+++ b/res_img/resnet50-block-10k-origincode/动态.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Remote_GDJC\res_img\resnet50-block-10k-origincode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420700BA-5B4F-48C8-B1A6-64271D793B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96650466-1BB0-4358-ABB0-4E4F80314ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2734" yWindow="1971" windowWidth="16200" windowHeight="9969" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="497" yWindow="2940" windowWidth="16200" windowHeight="9969" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="27">
   <si>
     <t>map</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,6 +125,10 @@
   </si>
   <si>
     <t>cutpaste methods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再次训练</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1865,10 +1869,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -2413,6 +2417,283 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="C31">
+        <v>0.376</v>
+      </c>
+      <c r="D31">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="E31">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="C32">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="D32">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="E32">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33">
+        <v>0.441</v>
+      </c>
+      <c r="C33">
+        <v>0.52</v>
+      </c>
+      <c r="D33">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="E33">
+        <v>0.122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="C34">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="D34">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="E34">
+        <v>0.13400000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="C35">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="D35">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="E35">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="C36">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="D36">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="E36">
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="C37">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="D37">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="E37">
+        <v>9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="C38">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D38">
+        <v>0.63</v>
+      </c>
+      <c r="E38">
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C39">
+        <v>0.621</v>
+      </c>
+      <c r="D39">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="E39">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="C40">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="D40">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="E40">
+        <v>0.121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="C41">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="D41">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="E41">
+        <v>0.184</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="C42">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="D42">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="E42">
+        <v>0.10299999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="C43">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="D43">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="E43">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C44">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="D44">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="E44">
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="C45">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="D45">
+        <v>0.65</v>
+      </c>
+      <c r="E45">
+        <v>0.157</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
